--- a/Code/Results/Cases/Case_6_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_5/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.28829711751502</v>
+        <v>16.81429625698297</v>
       </c>
       <c r="C2">
-        <v>17.40127578636656</v>
+        <v>9.745568684978592</v>
       </c>
       <c r="D2">
-        <v>3.119260891170519</v>
+        <v>3.97469522030314</v>
       </c>
       <c r="E2">
-        <v>8.993990845774311</v>
+        <v>9.332441021818072</v>
       </c>
       <c r="F2">
-        <v>42.89794233267946</v>
+        <v>39.57689395249427</v>
       </c>
       <c r="G2">
-        <v>2.093987516607634</v>
+        <v>2.133793188014092</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.839045103328709</v>
+        <v>6.83203681211859</v>
       </c>
       <c r="K2">
-        <v>21.20297715851125</v>
+        <v>14.78937007511659</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.08276619782548</v>
+        <v>16.44706187252022</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.72659314978546</v>
+        <v>15.855097425054</v>
       </c>
       <c r="C3">
-        <v>16.18462082818916</v>
+        <v>9.141031858644903</v>
       </c>
       <c r="D3">
-        <v>3.019997516169505</v>
+        <v>3.729316689932261</v>
       </c>
       <c r="E3">
-        <v>8.637488702804591</v>
+        <v>8.93722349401968</v>
       </c>
       <c r="F3">
-        <v>41.18629448303687</v>
+        <v>38.51050983413236</v>
       </c>
       <c r="G3">
-        <v>2.106528181337593</v>
+        <v>2.143039538188172</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.70840246872115</v>
+        <v>6.718894947762784</v>
       </c>
       <c r="K3">
-        <v>19.88557593561321</v>
+        <v>14.02146767198766</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.2840138796821</v>
+        <v>16.56291004424953</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.73586565417249</v>
+        <v>15.24929403034001</v>
       </c>
       <c r="C4">
-        <v>15.42729515735375</v>
+        <v>8.757393562425301</v>
       </c>
       <c r="D4">
-        <v>2.958699557220129</v>
+        <v>3.570770066534699</v>
       </c>
       <c r="E4">
-        <v>8.419225052660922</v>
+        <v>8.692906789854812</v>
       </c>
       <c r="F4">
-        <v>40.15004370771326</v>
+        <v>37.87265139843367</v>
       </c>
       <c r="G4">
-        <v>2.11437560214139</v>
+        <v>2.148859267423142</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.632570532517961</v>
+        <v>6.652943971560397</v>
       </c>
       <c r="K4">
-        <v>19.05275675784676</v>
+        <v>13.54009308399422</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.4124784318893</v>
+        <v>16.63920845216191</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.32427694888495</v>
+        <v>14.99841854737441</v>
       </c>
       <c r="C5">
-        <v>15.11173390922249</v>
+        <v>8.598027769238522</v>
       </c>
       <c r="D5">
-        <v>2.933665372133017</v>
+        <v>3.504176857872511</v>
       </c>
       <c r="E5">
-        <v>8.330519950670093</v>
+        <v>8.593057110198631</v>
       </c>
       <c r="F5">
-        <v>39.73167896584068</v>
+        <v>37.61708994984846</v>
       </c>
       <c r="G5">
-        <v>2.117614302793001</v>
+        <v>2.151268507820989</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.602746359166399</v>
+        <v>6.626948006683034</v>
       </c>
       <c r="K5">
-        <v>18.7075271002988</v>
+        <v>13.34166499808086</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.46602221703827</v>
+        <v>16.67155636456122</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.25546440442307</v>
+        <v>14.95652687363689</v>
       </c>
       <c r="C6">
-        <v>15.05891714853783</v>
+        <v>8.571385837847382</v>
       </c>
       <c r="D6">
-        <v>2.929506191868802</v>
+        <v>3.492999299225715</v>
       </c>
       <c r="E6">
-        <v>8.315807620818347</v>
+        <v>8.576463750936778</v>
       </c>
       <c r="F6">
-        <v>39.66245383695622</v>
+        <v>37.57492175056636</v>
       </c>
       <c r="G6">
-        <v>2.118154654862743</v>
+        <v>2.151670885959761</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.597858492377175</v>
+        <v>6.622684353759036</v>
       </c>
       <c r="K6">
-        <v>18.64985530655371</v>
+        <v>13.30858675979041</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.47498422180802</v>
+        <v>16.67700235436374</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.73034638442963</v>
+        <v>15.24592650479594</v>
       </c>
       <c r="C7">
-        <v>15.42306745368217</v>
+        <v>8.755256409035484</v>
       </c>
       <c r="D7">
-        <v>2.958362112871474</v>
+        <v>3.569880000382866</v>
       </c>
       <c r="E7">
-        <v>8.418027658977575</v>
+        <v>8.691561170768441</v>
       </c>
       <c r="F7">
-        <v>40.14438530735201</v>
+        <v>37.86918694720454</v>
       </c>
       <c r="G7">
-        <v>2.114419110426656</v>
+        <v>2.148891604481888</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.63216397997001</v>
+        <v>6.652589826867514</v>
       </c>
       <c r="K7">
-        <v>19.04812426752641</v>
+        <v>13.53742585564447</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.41319575509789</v>
+        <v>16.63963967778656</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.75648747404081</v>
+        <v>16.48718294014461</v>
       </c>
       <c r="C8">
-        <v>16.97618525380905</v>
+        <v>9.539757981471549</v>
       </c>
       <c r="D8">
-        <v>3.085126324804062</v>
+        <v>3.891722380458297</v>
       </c>
       <c r="E8">
-        <v>8.870981571266148</v>
+        <v>9.196583251866358</v>
       </c>
       <c r="F8">
-        <v>42.30482280580607</v>
+        <v>39.20576542061566</v>
       </c>
       <c r="G8">
-        <v>2.098283310474303</v>
+        <v>2.136952914024284</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.793074741172064</v>
+        <v>6.792292239470286</v>
       </c>
       <c r="K8">
-        <v>20.75377829000067</v>
+        <v>14.52676572144118</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.15111462230978</v>
+        <v>16.48590629678591</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.67757691921566</v>
+        <v>18.78033332411322</v>
       </c>
       <c r="C9">
-        <v>19.92204568332882</v>
+        <v>10.99430101647069</v>
       </c>
       <c r="D9">
-        <v>3.329670031435403</v>
+        <v>4.460613536183893</v>
       </c>
       <c r="E9">
-        <v>9.761604498580162</v>
+        <v>10.16922613602217</v>
       </c>
       <c r="F9">
-        <v>46.65282410716588</v>
+        <v>41.9563862797627</v>
       </c>
       <c r="G9">
-        <v>2.06762116947312</v>
+        <v>2.114581161107219</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.144622527362045</v>
+        <v>7.094407735763561</v>
       </c>
       <c r="K9">
-        <v>24.25859771309661</v>
+        <v>16.38114675023159</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.67819203897052</v>
+        <v>16.22763271729942</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.44363519489432</v>
+        <v>20.39494382242559</v>
       </c>
       <c r="C10">
-        <v>21.93972160534792</v>
+        <v>12.07215957191802</v>
       </c>
       <c r="D10">
-        <v>3.505492261644776</v>
+        <v>4.84134219410943</v>
       </c>
       <c r="E10">
-        <v>10.41546868248339</v>
+        <v>10.8683233358955</v>
       </c>
       <c r="F10">
-        <v>49.91603052465295</v>
+        <v>44.05203612684138</v>
       </c>
       <c r="G10">
-        <v>2.045390256601907</v>
+        <v>2.098640857223065</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.42690790819706</v>
+        <v>7.333962710415111</v>
       </c>
       <c r="K10">
-        <v>26.70886757168232</v>
+        <v>17.77558267415639</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>13.35959669944335</v>
+        <v>16.06766687797458</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.66218261157952</v>
+        <v>21.17691707941857</v>
       </c>
       <c r="C11">
-        <v>22.82947916537937</v>
+        <v>12.54404490270062</v>
       </c>
       <c r="D11">
-        <v>3.584448761286877</v>
+        <v>5.006683196972695</v>
       </c>
       <c r="E11">
-        <v>10.71292211879568</v>
+        <v>11.1824155936538</v>
       </c>
       <c r="F11">
-        <v>51.41832715652951</v>
+        <v>45.02143454455378</v>
       </c>
       <c r="G11">
-        <v>2.035261621091916</v>
+        <v>2.091462584242553</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.561137751781233</v>
+        <v>7.446896496927626</v>
       </c>
       <c r="K11">
-        <v>27.78709996073015</v>
+        <v>18.46714108818847</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13.2221026920998</v>
+        <v>16.00226018957864</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.1183607143637</v>
+        <v>21.46865825431167</v>
       </c>
       <c r="C12">
-        <v>23.1627449009252</v>
+        <v>12.72019339945379</v>
       </c>
       <c r="D12">
-        <v>3.614190734352134</v>
+        <v>5.068186413884856</v>
       </c>
       <c r="E12">
-        <v>10.82560634117775</v>
+        <v>11.30076772444834</v>
       </c>
       <c r="F12">
-        <v>51.99021942192434</v>
+        <v>45.39087180977288</v>
       </c>
       <c r="G12">
-        <v>2.03141604820184</v>
+        <v>2.088751658071682</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.612867976668582</v>
+        <v>7.490246099022355</v>
       </c>
       <c r="K12">
-        <v>28.19060363188924</v>
+        <v>18.72497882953333</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>13.17123627759019</v>
+        <v>15.97863827043156</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.02034033943525</v>
+        <v>21.40601864612279</v>
       </c>
       <c r="C13">
-        <v>23.09112655576024</v>
+        <v>12.68236794847939</v>
       </c>
       <c r="D13">
-        <v>3.607792348567743</v>
+        <v>5.054989486945973</v>
       </c>
       <c r="E13">
-        <v>10.80133472399864</v>
+        <v>11.27530475456159</v>
       </c>
       <c r="F13">
-        <v>51.86690951402591</v>
+        <v>45.31120134384724</v>
       </c>
       <c r="G13">
-        <v>2.032244847344069</v>
+        <v>2.089335232852639</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.601685722003122</v>
+        <v>7.480883724788585</v>
       </c>
       <c r="K13">
-        <v>28.10390765076164</v>
+        <v>18.66962591176652</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>13.18213552181604</v>
+        <v>15.98367318445827</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.69981515096417</v>
+        <v>21.20100558944934</v>
       </c>
       <c r="C14">
-        <v>22.85696823801033</v>
+        <v>12.55858706561886</v>
       </c>
       <c r="D14">
-        <v>3.586898835189717</v>
+        <v>5.011765170561583</v>
       </c>
       <c r="E14">
-        <v>10.72219144661157</v>
+        <v>11.1921643299417</v>
       </c>
       <c r="F14">
-        <v>51.46531366201742</v>
+        <v>45.05178093303157</v>
       </c>
       <c r="G14">
-        <v>2.034945494724432</v>
+        <v>2.091239427246965</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.565375164190792</v>
+        <v>7.450451088295599</v>
       </c>
       <c r="K14">
-        <v>27.82038989032322</v>
+        <v>18.48843358405576</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>13.21789298746098</v>
+        <v>16.00029328829623</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.50281426205093</v>
+        <v>21.07486400935965</v>
       </c>
       <c r="C15">
-        <v>22.71307427355504</v>
+        <v>12.48243981598025</v>
       </c>
       <c r="D15">
-        <v>3.574080303402796</v>
+        <v>4.98514545464451</v>
       </c>
       <c r="E15">
-        <v>10.6737216309003</v>
+        <v>11.14116155760397</v>
       </c>
       <c r="F15">
-        <v>51.21973220058977</v>
+        <v>44.89318608555759</v>
       </c>
       <c r="G15">
-        <v>2.03659815347672</v>
+        <v>2.092406655694889</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.543253301619878</v>
+        <v>7.431886796752939</v>
       </c>
       <c r="K15">
-        <v>27.64611617617054</v>
+        <v>18.37692674681745</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>13.23995606068041</v>
+        <v>16.01062563280551</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.36323757980276</v>
+        <v>20.34321956142963</v>
       </c>
       <c r="C16">
-        <v>21.88103903199384</v>
+        <v>12.04095853617496</v>
       </c>
       <c r="D16">
-        <v>3.500310673379519</v>
+        <v>4.830380492946243</v>
       </c>
       <c r="E16">
-        <v>10.3960325851832</v>
+        <v>10.84771517010842</v>
       </c>
       <c r="F16">
-        <v>49.81824434085414</v>
+        <v>43.98900896532292</v>
       </c>
       <c r="G16">
-        <v>2.046051229713241</v>
+        <v>2.099111180636849</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.41825784057608</v>
+        <v>7.326663040207472</v>
       </c>
       <c r="K16">
-        <v>26.63770562225449</v>
+        <v>17.72981351648881</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13.36874237291318</v>
+        <v>16.07209673899182</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.65426328962749</v>
+        <v>19.91756252921753</v>
       </c>
       <c r="C17">
-        <v>21.36366305795849</v>
+        <v>11.76547296565316</v>
       </c>
       <c r="D17">
-        <v>3.454784012659721</v>
+        <v>4.733439844171965</v>
       </c>
       <c r="E17">
-        <v>10.2257026181058</v>
+        <v>10.66666595536166</v>
       </c>
       <c r="F17">
-        <v>48.96330294953905</v>
+        <v>43.43845174785042</v>
       </c>
       <c r="G17">
-        <v>2.051841172291804</v>
+        <v>2.103240747091223</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.343107864984807</v>
+        <v>7.263134723536796</v>
       </c>
       <c r="K17">
-        <v>26.01004233849233</v>
+        <v>17.32546371168016</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.44973705373557</v>
+        <v>16.11175182647335</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.24270698394155</v>
+        <v>19.68026263264019</v>
       </c>
       <c r="C18">
-        <v>21.06341187990077</v>
+        <v>11.60527813864827</v>
       </c>
       <c r="D18">
-        <v>3.428501952513891</v>
+        <v>4.676941358731761</v>
       </c>
       <c r="E18">
-        <v>10.1277295341448</v>
+        <v>10.56216131898781</v>
       </c>
       <c r="F18">
-        <v>48.47320645267548</v>
+        <v>43.12329387954718</v>
       </c>
       <c r="G18">
-        <v>2.055170451356584</v>
+        <v>2.105623049636614</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.30042648657604</v>
+        <v>7.226966432584861</v>
       </c>
       <c r="K18">
-        <v>25.64557026211522</v>
+        <v>17.11626078096889</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.49701366920632</v>
+        <v>16.13524753085382</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.10270048853923</v>
+        <v>19.59958953212584</v>
       </c>
       <c r="C19">
-        <v>20.96128302247614</v>
+        <v>11.55073658373958</v>
       </c>
       <c r="D19">
-        <v>3.419587139004731</v>
+        <v>4.657684106538441</v>
       </c>
       <c r="E19">
-        <v>10.09455605362041</v>
+        <v>10.52671533900852</v>
       </c>
       <c r="F19">
-        <v>48.30754002779499</v>
+        <v>43.0168456432488</v>
       </c>
       <c r="G19">
-        <v>2.056297745282589</v>
+        <v>2.106430964439581</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.286066841164502</v>
+        <v>7.214783905004812</v>
       </c>
       <c r="K19">
-        <v>25.5215604052463</v>
+        <v>17.05021809772888</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.51313582860945</v>
+        <v>16.14331830272306</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.73012226573146</v>
+        <v>19.96132589487733</v>
       </c>
       <c r="C20">
-        <v>21.41901246603554</v>
+        <v>11.7949785233538</v>
       </c>
       <c r="D20">
-        <v>3.459640460795085</v>
+        <v>4.743835864398643</v>
       </c>
       <c r="E20">
-        <v>10.24383470882064</v>
+        <v>10.68597746794369</v>
       </c>
       <c r="F20">
-        <v>49.05414026765559</v>
+        <v>43.4969033378696</v>
       </c>
       <c r="G20">
-        <v>2.05122497344403</v>
+        <v>2.102800436313169</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.351051105094691</v>
+        <v>7.269858879007586</v>
       </c>
       <c r="K20">
-        <v>26.07721298989164</v>
+        <v>17.36879159219396</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.44104270431015</v>
+        <v>16.10745875900367</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.79409985184806</v>
+        <v>21.26134038639196</v>
       </c>
       <c r="C21">
-        <v>22.92584240488515</v>
+        <v>12.59501262854919</v>
       </c>
       <c r="D21">
-        <v>3.593040079287813</v>
+        <v>5.024491077465438</v>
       </c>
       <c r="E21">
-        <v>10.7454360104704</v>
+        <v>11.21660071683733</v>
       </c>
       <c r="F21">
-        <v>51.58318610230005</v>
+        <v>45.12791474173522</v>
       </c>
       <c r="G21">
-        <v>2.034152591177067</v>
+        <v>2.090679947307572</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.5760154354254</v>
+        <v>7.459373899434627</v>
       </c>
       <c r="K21">
-        <v>27.90379235991776</v>
+        <v>18.54176250179361</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>13.20735640997309</v>
+        <v>15.99537970159647</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.11264791146733</v>
+        <v>22.10252686361722</v>
       </c>
       <c r="C22">
-        <v>23.88949689166563</v>
+        <v>13.10311273687778</v>
       </c>
       <c r="D22">
-        <v>3.679308256174239</v>
+        <v>5.201470623389103</v>
       </c>
       <c r="E22">
-        <v>11.07356861632723</v>
+        <v>11.55997200541766</v>
       </c>
       <c r="F22">
-        <v>53.25392534480471</v>
+        <v>46.20761314000529</v>
       </c>
       <c r="G22">
-        <v>2.022931480141637</v>
+        <v>2.082799496012829</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.72833183273742</v>
+        <v>7.586647657464943</v>
       </c>
       <c r="K22">
-        <v>29.06984831929364</v>
+        <v>19.28490084582166</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>13.0617043169847</v>
+        <v>15.92885924100698</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.41152044156854</v>
+        <v>21.6558424248162</v>
       </c>
       <c r="C23">
-        <v>23.37696998428009</v>
+        <v>12.8332418615326</v>
       </c>
       <c r="D23">
-        <v>3.633350792540735</v>
+        <v>5.10759499744338</v>
       </c>
       <c r="E23">
-        <v>10.89838675625151</v>
+        <v>11.37702339761028</v>
       </c>
       <c r="F23">
-        <v>52.36039024262016</v>
+        <v>45.63007438866987</v>
       </c>
       <c r="G23">
-        <v>2.028929114607009</v>
+        <v>2.087002833851912</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.646528403649616</v>
+        <v>7.518400616277626</v>
       </c>
       <c r="K23">
-        <v>28.44987537849827</v>
+        <v>18.89036539078601</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>13.13874300530163</v>
+        <v>15.9637148144164</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.695838782808</v>
+        <v>19.9415467454266</v>
       </c>
       <c r="C24">
-        <v>21.39399776237661</v>
+        <v>11.78164472038738</v>
       </c>
       <c r="D24">
-        <v>3.457445196724095</v>
+        <v>4.739138211213685</v>
       </c>
       <c r="E24">
-        <v>10.23563734334016</v>
+        <v>10.67724803008761</v>
       </c>
       <c r="F24">
-        <v>49.01306832158006</v>
+        <v>43.47047312485726</v>
       </c>
       <c r="G24">
-        <v>2.051503554614005</v>
+        <v>2.102999475164467</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.347458340739083</v>
+        <v>7.266817783663947</v>
       </c>
       <c r="K24">
-        <v>26.04685644610698</v>
+        <v>17.34921198025639</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.44497121240856</v>
+        <v>16.10939748883148</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.62110525558647</v>
+        <v>18.17586059746174</v>
       </c>
       <c r="C25">
-        <v>19.15195574759944</v>
+        <v>10.599081378312</v>
       </c>
       <c r="D25">
-        <v>3.264106664201915</v>
+        <v>4.313316744958443</v>
       </c>
       <c r="E25">
-        <v>9.520695778169378</v>
+        <v>9.908558042179237</v>
       </c>
       <c r="F25">
-        <v>45.46499102835915</v>
+        <v>41.19893634235955</v>
       </c>
       <c r="G25">
-        <v>2.075839898371228</v>
+        <v>2.120535431291727</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.045474919569757</v>
+        <v>7.009624002908031</v>
       </c>
       <c r="K25">
-        <v>23.32143900441597</v>
+        <v>15.88950734470978</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.80139452421311</v>
+        <v>16.29254703076963</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.81429625698297</v>
+        <v>13.40524282719949</v>
       </c>
       <c r="C2">
-        <v>9.745568684978592</v>
+        <v>9.323459951406029</v>
       </c>
       <c r="D2">
-        <v>3.97469522030314</v>
+        <v>6.799093198624999</v>
       </c>
       <c r="E2">
-        <v>9.332441021818072</v>
+        <v>10.69107164279523</v>
       </c>
       <c r="F2">
-        <v>39.57689395249427</v>
+        <v>27.02721340037007</v>
       </c>
       <c r="G2">
-        <v>2.133793188014092</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>32.37246316800772</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.950264560433967</v>
       </c>
       <c r="J2">
-        <v>6.83203681211859</v>
+        <v>11.23344396481496</v>
       </c>
       <c r="K2">
-        <v>14.78937007511659</v>
+        <v>16.87832295305967</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.497080360146061</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.36320005638237</v>
       </c>
       <c r="N2">
-        <v>16.44706187252022</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>13.21279126358805</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.855097425054</v>
+        <v>12.4999635880989</v>
       </c>
       <c r="C3">
-        <v>9.141031858644903</v>
+        <v>8.670283909634978</v>
       </c>
       <c r="D3">
-        <v>3.729316689932261</v>
+        <v>6.462624250468505</v>
       </c>
       <c r="E3">
-        <v>8.93722349401968</v>
+        <v>10.22958215021034</v>
       </c>
       <c r="F3">
-        <v>38.51050983413236</v>
+        <v>26.49241792501905</v>
       </c>
       <c r="G3">
-        <v>2.143039538188172</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>31.69611292332494</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.148238433328951</v>
       </c>
       <c r="J3">
-        <v>6.718894947762784</v>
+        <v>11.21021905266342</v>
       </c>
       <c r="K3">
-        <v>14.02146767198766</v>
+        <v>16.86445900323703</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.387242145814414</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.55084531021426</v>
       </c>
       <c r="N3">
-        <v>16.56291004424953</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>13.39391886036717</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.24929403034001</v>
+        <v>11.95034246010381</v>
       </c>
       <c r="C4">
-        <v>8.757393562425301</v>
+        <v>8.251088324654976</v>
       </c>
       <c r="D4">
-        <v>3.570770066534699</v>
+        <v>6.251127266941419</v>
       </c>
       <c r="E4">
-        <v>8.692906789854812</v>
+        <v>9.942195751434109</v>
       </c>
       <c r="F4">
-        <v>37.87265139843367</v>
+        <v>26.17324711626743</v>
       </c>
       <c r="G4">
-        <v>2.148859267423142</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>31.29188029517772</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.274776573479065</v>
       </c>
       <c r="J4">
-        <v>6.652943971560397</v>
+        <v>11.20050883682302</v>
       </c>
       <c r="K4">
-        <v>13.54009308399422</v>
+        <v>16.86158168889468</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.322243206930067</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.02286548458305</v>
       </c>
       <c r="N4">
-        <v>16.63920845216191</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>13.50692194378226</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.99841854737441</v>
+        <v>11.71373639163592</v>
       </c>
       <c r="C5">
-        <v>8.598027769238522</v>
+        <v>8.084240812801511</v>
       </c>
       <c r="D5">
-        <v>3.504176857872511</v>
+        <v>6.166357078132241</v>
       </c>
       <c r="E5">
-        <v>8.593057110198631</v>
+        <v>9.825362649472412</v>
       </c>
       <c r="F5">
-        <v>37.61708994984846</v>
+        <v>26.03663663907863</v>
       </c>
       <c r="G5">
-        <v>2.151268507820989</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>31.11416625896671</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.330432907279142</v>
       </c>
       <c r="J5">
-        <v>6.626948006683034</v>
+        <v>11.19484741762076</v>
       </c>
       <c r="K5">
-        <v>13.34166499808086</v>
+        <v>16.85517533408365</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.296182309018024</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.79939157680701</v>
       </c>
       <c r="N5">
-        <v>16.67155636456122</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>13.55237319214883</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.95652687363689</v>
+        <v>11.66681092300147</v>
       </c>
       <c r="C6">
-        <v>8.571385837847382</v>
+        <v>8.066734040531824</v>
       </c>
       <c r="D6">
-        <v>3.492999299225715</v>
+        <v>6.155314549727231</v>
       </c>
       <c r="E6">
-        <v>8.576463750936778</v>
+        <v>9.807284421560817</v>
       </c>
       <c r="F6">
-        <v>37.57492175056636</v>
+        <v>26.00315466743889</v>
       </c>
       <c r="G6">
-        <v>2.151670885959761</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>31.06542479956881</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.343372880839003</v>
       </c>
       <c r="J6">
-        <v>6.622684353759036</v>
+        <v>11.19052898870747</v>
       </c>
       <c r="K6">
-        <v>13.30858675979041</v>
+        <v>16.84611930817981</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.291644190053495</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.76067923629153</v>
       </c>
       <c r="N6">
-        <v>16.67700235436374</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>13.55864810564819</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.24592650479594</v>
+        <v>11.92798807786865</v>
       </c>
       <c r="C7">
-        <v>8.755256409035484</v>
+        <v>8.276703590411733</v>
       </c>
       <c r="D7">
-        <v>3.569880000382866</v>
+        <v>6.258291030742494</v>
       </c>
       <c r="E7">
-        <v>8.691561170768441</v>
+        <v>9.944294053963771</v>
       </c>
       <c r="F7">
-        <v>37.86918694720454</v>
+        <v>26.14169351577653</v>
       </c>
       <c r="G7">
-        <v>2.148891604481888</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>31.23681322267904</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.285140917616305</v>
       </c>
       <c r="J7">
-        <v>6.652589826867514</v>
+        <v>11.19103713614638</v>
       </c>
       <c r="K7">
-        <v>13.53742585564447</v>
+        <v>16.83945888336335</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.321210372613915</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.01678657734683</v>
       </c>
       <c r="N7">
-        <v>16.63963967778656</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>13.50402741760775</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.48718294014461</v>
+        <v>13.07721890210962</v>
       </c>
       <c r="C8">
-        <v>9.539757981471549</v>
+        <v>9.135687183604247</v>
       </c>
       <c r="D8">
-        <v>3.891722380458297</v>
+        <v>6.694463820220298</v>
       </c>
       <c r="E8">
-        <v>9.196583251866358</v>
+        <v>10.53746192761608</v>
       </c>
       <c r="F8">
-        <v>39.20576542061566</v>
+        <v>26.80261566945337</v>
       </c>
       <c r="G8">
-        <v>2.136952914024284</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>32.06911775385078</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.029954738450403</v>
       </c>
       <c r="J8">
-        <v>6.792292239470286</v>
+        <v>11.21213320168114</v>
       </c>
       <c r="K8">
-        <v>14.52676572144118</v>
+        <v>16.84332895440101</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.457823069732446</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.08533477366481</v>
       </c>
       <c r="N8">
-        <v>16.48590629678591</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>13.27045914754046</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.78033332411322</v>
+        <v>15.16282641215923</v>
       </c>
       <c r="C9">
-        <v>10.99430101647069</v>
+        <v>10.63396445761916</v>
       </c>
       <c r="D9">
-        <v>4.460613536183893</v>
+        <v>7.493045034314997</v>
       </c>
       <c r="E9">
-        <v>10.16922613602217</v>
+        <v>11.65602712922404</v>
       </c>
       <c r="F9">
-        <v>41.9563862797627</v>
+        <v>28.21909842496839</v>
       </c>
       <c r="G9">
-        <v>2.114581161107219</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>33.87540278356971</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.552432641286253</v>
       </c>
       <c r="J9">
-        <v>7.094407735763561</v>
+        <v>11.30772484322675</v>
       </c>
       <c r="K9">
-        <v>16.38114675023159</v>
+        <v>16.93698898511569</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.745544222716917</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.95567053748217</v>
       </c>
       <c r="N9">
-        <v>16.22763271729942</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.83156684464688</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.39494382242559</v>
+        <v>16.51988254704425</v>
       </c>
       <c r="C10">
-        <v>12.07215957191802</v>
+        <v>11.66094218562714</v>
       </c>
       <c r="D10">
-        <v>4.84134219410943</v>
+        <v>8.052242446969343</v>
       </c>
       <c r="E10">
-        <v>10.8683233358955</v>
+        <v>12.44846474344624</v>
       </c>
       <c r="F10">
-        <v>44.05203612684138</v>
+        <v>29.28297583821034</v>
       </c>
       <c r="G10">
-        <v>2.098640857223065</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>35.22308487048404</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.73102400797278</v>
       </c>
       <c r="J10">
-        <v>7.333962710415111</v>
+        <v>11.39833696287689</v>
       </c>
       <c r="K10">
-        <v>17.77558267415639</v>
+        <v>17.02668401182761</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.966945512256024</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.19072688306909</v>
       </c>
       <c r="N10">
-        <v>16.06766687797458</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.51429568942943</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.17691707941857</v>
+        <v>17.07932852085357</v>
       </c>
       <c r="C11">
-        <v>12.54404490270062</v>
+        <v>12.14166778027938</v>
       </c>
       <c r="D11">
-        <v>5.006683196972695</v>
+        <v>8.309372029629507</v>
       </c>
       <c r="E11">
-        <v>11.1824155936538</v>
+        <v>12.80562689755178</v>
       </c>
       <c r="F11">
-        <v>45.02143454455378</v>
+        <v>29.73149581160213</v>
       </c>
       <c r="G11">
-        <v>2.091462584242553</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>35.77010381402182</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.879942880942163</v>
       </c>
       <c r="J11">
-        <v>7.446896496927626</v>
+        <v>11.43067973319383</v>
       </c>
       <c r="K11">
-        <v>18.46714108818847</v>
+        <v>17.04011321564786</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.068664280191898</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.71949580746573</v>
       </c>
       <c r="N11">
-        <v>16.00226018957864</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.36631068837294</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.46865825431167</v>
+        <v>17.29849140252535</v>
       </c>
       <c r="C12">
-        <v>12.72019339945379</v>
+        <v>12.30367989790006</v>
       </c>
       <c r="D12">
-        <v>5.068186413884856</v>
+        <v>8.400016825427937</v>
       </c>
       <c r="E12">
-        <v>11.30076772444834</v>
+        <v>12.9371656374526</v>
       </c>
       <c r="F12">
-        <v>45.39087180977288</v>
+        <v>29.92530074606303</v>
       </c>
       <c r="G12">
-        <v>2.088751658071682</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>36.0189679593479</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.933230387237356</v>
       </c>
       <c r="J12">
-        <v>7.490246099022355</v>
+        <v>11.45169075270331</v>
       </c>
       <c r="K12">
-        <v>18.72497882953333</v>
+        <v>17.06500426097298</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.108016443188799</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.91763400727252</v>
       </c>
       <c r="N12">
-        <v>15.97863827043156</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.31299805943679</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.40601864612279</v>
+        <v>17.25392905775127</v>
       </c>
       <c r="C13">
-        <v>12.68236794847939</v>
+        <v>12.26549413105457</v>
       </c>
       <c r="D13">
-        <v>5.054989486945973</v>
+        <v>8.379446928041306</v>
       </c>
       <c r="E13">
-        <v>11.27530475456159</v>
+        <v>12.90840109705172</v>
       </c>
       <c r="F13">
-        <v>45.31120134384724</v>
+        <v>29.88808040026883</v>
       </c>
       <c r="G13">
-        <v>2.089335232852639</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>35.97334165583083</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.921174583108018</v>
       </c>
       <c r="J13">
-        <v>7.480883724788585</v>
+        <v>11.44870352410654</v>
       </c>
       <c r="K13">
-        <v>18.66962591176652</v>
+        <v>17.06332894858027</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.09964036590666</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.87555164838922</v>
       </c>
       <c r="N13">
-        <v>15.98367318445827</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.32498748667454</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.20100558944934</v>
+        <v>17.09849399017608</v>
       </c>
       <c r="C14">
-        <v>12.55858706561886</v>
+        <v>12.15358729802864</v>
       </c>
       <c r="D14">
-        <v>5.011765170561583</v>
+        <v>8.316381900499886</v>
       </c>
       <c r="E14">
-        <v>11.1921643299417</v>
+        <v>12.81626342143674</v>
       </c>
       <c r="F14">
-        <v>45.05178093303157</v>
+        <v>29.7493674329153</v>
       </c>
       <c r="G14">
-        <v>2.091239427246965</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>35.79397887172389</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.884069961714726</v>
       </c>
       <c r="J14">
-        <v>7.450451088295599</v>
+        <v>11.43306167104545</v>
       </c>
       <c r="K14">
-        <v>18.48843358405576</v>
+        <v>17.04372712285446</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.071943697321498</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.73605351250766</v>
       </c>
       <c r="N14">
-        <v>16.00029328829623</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.36214060973412</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.07486400935965</v>
+        <v>16.99779952910151</v>
       </c>
       <c r="C15">
-        <v>12.48243981598025</v>
+        <v>12.09154018082863</v>
       </c>
       <c r="D15">
-        <v>4.98514545464451</v>
+        <v>8.279802171764178</v>
       </c>
       <c r="E15">
-        <v>11.14116155760397</v>
+        <v>12.760647460123</v>
       </c>
       <c r="F15">
-        <v>44.89318608555759</v>
+        <v>29.65546428069267</v>
       </c>
       <c r="G15">
-        <v>2.092406655694889</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>35.66832022402769</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.862608375289064</v>
       </c>
       <c r="J15">
-        <v>7.431886796752939</v>
+        <v>11.4204806435388</v>
       </c>
       <c r="K15">
-        <v>18.37692674681745</v>
+        <v>17.02449711678348</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.054794223823496</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.64925604377816</v>
       </c>
       <c r="N15">
-        <v>16.01062563280551</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.38390021563447</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.34321956142963</v>
+        <v>16.4409751864795</v>
       </c>
       <c r="C16">
-        <v>12.04095853617496</v>
+        <v>11.68817083777287</v>
       </c>
       <c r="D16">
-        <v>4.830380492946243</v>
+        <v>8.054183345569681</v>
       </c>
       <c r="E16">
-        <v>10.84771517010842</v>
+        <v>12.43339531527044</v>
       </c>
       <c r="F16">
-        <v>43.98900896532292</v>
+        <v>29.17656271716393</v>
       </c>
       <c r="G16">
-        <v>2.099111180636849</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>35.05143244841948</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.731301040998707</v>
       </c>
       <c r="J16">
-        <v>7.326663040207472</v>
+        <v>11.36997935260868</v>
       </c>
       <c r="K16">
-        <v>17.72981351648881</v>
+        <v>16.96359437403596</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.95847199961568</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>15.14862172112268</v>
       </c>
       <c r="N16">
-        <v>16.07209673899182</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.51531588311298</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.91756252921753</v>
+        <v>16.09025196891858</v>
       </c>
       <c r="C17">
-        <v>11.76547296565316</v>
+        <v>11.43630472104423</v>
       </c>
       <c r="D17">
-        <v>4.733439844171965</v>
+        <v>7.913860315446318</v>
       </c>
       <c r="E17">
-        <v>10.66666595536166</v>
+        <v>12.23057451386699</v>
       </c>
       <c r="F17">
-        <v>43.43845174785042</v>
+        <v>28.88463330929979</v>
       </c>
       <c r="G17">
-        <v>2.103240747091223</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>34.67533361105829</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.650418012611605</v>
       </c>
       <c r="J17">
-        <v>7.263134723536796</v>
+        <v>11.34061790008444</v>
       </c>
       <c r="K17">
-        <v>17.32546371168016</v>
+        <v>16.92844576907469</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.899896451405341</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.83402093142233</v>
       </c>
       <c r="N17">
-        <v>16.11175182647335</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.5962230594356</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.68026263264019</v>
+        <v>15.89815013227834</v>
       </c>
       <c r="C18">
-        <v>11.60527813864827</v>
+        <v>11.27129868470514</v>
       </c>
       <c r="D18">
-        <v>4.676941358731761</v>
+        <v>7.826569115909325</v>
       </c>
       <c r="E18">
-        <v>10.56216131898781</v>
+        <v>12.11055303667222</v>
       </c>
       <c r="F18">
-        <v>43.12329387954718</v>
+        <v>28.74119182642022</v>
       </c>
       <c r="G18">
-        <v>2.105623049636614</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>34.50179498643772</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.599487021897047</v>
       </c>
       <c r="J18">
-        <v>7.226966432584861</v>
+        <v>11.33233385426424</v>
       </c>
       <c r="K18">
-        <v>17.11626078096889</v>
+        <v>16.92795686105493</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.866970238668389</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.65247161089266</v>
       </c>
       <c r="N18">
-        <v>16.13524753085382</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.64551138534387</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.59958953212584</v>
+        <v>15.82252196424298</v>
       </c>
       <c r="C19">
-        <v>11.55073658373958</v>
+        <v>11.22938298236927</v>
       </c>
       <c r="D19">
-        <v>4.657684106538441</v>
+        <v>7.801431440959772</v>
       </c>
       <c r="E19">
-        <v>10.52671533900852</v>
+        <v>12.07181699493695</v>
       </c>
       <c r="F19">
-        <v>43.0168456432488</v>
+        <v>28.67444967193303</v>
       </c>
       <c r="G19">
-        <v>2.106430964439581</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>34.41092725988357</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.585419370574215</v>
       </c>
       <c r="J19">
-        <v>7.214783905004812</v>
+        <v>11.3234439686243</v>
       </c>
       <c r="K19">
-        <v>17.05021809772888</v>
+        <v>16.9133246006075</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.85541664196715</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.58885976480422</v>
       </c>
       <c r="N19">
-        <v>16.14331830272306</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.66018482056611</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.96132589487733</v>
+        <v>16.12894373118194</v>
       </c>
       <c r="C20">
-        <v>11.7949785233538</v>
+        <v>11.46185279160039</v>
       </c>
       <c r="D20">
-        <v>4.743835864398643</v>
+        <v>7.928412447073151</v>
       </c>
       <c r="E20">
-        <v>10.68597746794369</v>
+        <v>12.25203751257586</v>
       </c>
       <c r="F20">
-        <v>43.4969033378696</v>
+        <v>28.91748946271872</v>
       </c>
       <c r="G20">
-        <v>2.102800436313169</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>34.71854406724985</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.658704320008598</v>
       </c>
       <c r="J20">
-        <v>7.269858879007586</v>
+        <v>11.34431100100839</v>
       </c>
       <c r="K20">
-        <v>17.36879159219396</v>
+        <v>16.93358823746379</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.906156468895143</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.8679644450602</v>
       </c>
       <c r="N20">
-        <v>16.10745875900367</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.58780440723639</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.26134038639196</v>
+        <v>17.13069464574548</v>
       </c>
       <c r="C21">
-        <v>12.59501262854919</v>
+        <v>12.20570502520263</v>
       </c>
       <c r="D21">
-        <v>5.024491077465438</v>
+        <v>8.341115900833863</v>
       </c>
       <c r="E21">
-        <v>11.21660071683733</v>
+        <v>12.84611758062265</v>
       </c>
       <c r="F21">
-        <v>45.12791474173522</v>
+        <v>29.76446069021013</v>
       </c>
       <c r="G21">
-        <v>2.090679947307572</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>35.80154200670247</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.898649647350644</v>
       </c>
       <c r="J21">
-        <v>7.459373899434627</v>
+        <v>11.42877819316565</v>
       </c>
       <c r="K21">
-        <v>18.54176250179361</v>
+        <v>17.02848670897276</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.079447304935521</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.77485765938053</v>
       </c>
       <c r="N21">
-        <v>15.99537970159647</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.34835078706319</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.10252686361722</v>
+        <v>17.77301785247478</v>
       </c>
       <c r="C22">
-        <v>13.10311273687778</v>
+        <v>12.65326029248962</v>
       </c>
       <c r="D22">
-        <v>5.201470623389103</v>
+        <v>8.596591625534156</v>
       </c>
       <c r="E22">
-        <v>11.55997200541766</v>
+        <v>13.22387557069055</v>
       </c>
       <c r="F22">
-        <v>46.20761314000529</v>
+        <v>30.35626787385767</v>
       </c>
       <c r="G22">
-        <v>2.082799496012829</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>36.57380686581591</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.049575059620162</v>
       </c>
       <c r="J22">
-        <v>7.586647657464943</v>
+        <v>11.50066322058897</v>
       </c>
       <c r="K22">
-        <v>19.28490084582166</v>
+        <v>17.12459456414535</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.195115340701527</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.34618983054514</v>
       </c>
       <c r="N22">
-        <v>15.92885924100698</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>12.19633340291572</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.6558424248162</v>
+        <v>17.44911204324817</v>
       </c>
       <c r="C23">
-        <v>12.8332418615326</v>
+        <v>12.39281922108995</v>
       </c>
       <c r="D23">
-        <v>5.10759499744338</v>
+        <v>8.453458599648629</v>
       </c>
       <c r="E23">
-        <v>11.37702339761028</v>
+        <v>13.01962815510118</v>
       </c>
       <c r="F23">
-        <v>45.63007438866987</v>
+        <v>30.07062946615618</v>
       </c>
       <c r="G23">
-        <v>2.087002833851912</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>36.21503644946752</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.965204882943055</v>
       </c>
       <c r="J23">
-        <v>7.518400616277626</v>
+        <v>11.47243936284836</v>
       </c>
       <c r="K23">
-        <v>18.89036539078601</v>
+        <v>17.09784013346477</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.133988088301874</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.04619191024395</v>
       </c>
       <c r="N23">
-        <v>15.9637148144164</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.28086219832319</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.9415467454266</v>
+        <v>16.1386541895673</v>
       </c>
       <c r="C24">
-        <v>11.78164472038738</v>
+        <v>11.41167106599009</v>
       </c>
       <c r="D24">
-        <v>4.739138211213685</v>
+        <v>7.909504559205445</v>
       </c>
       <c r="E24">
-        <v>10.67724803008761</v>
+        <v>12.23683083217149</v>
       </c>
       <c r="F24">
-        <v>43.47047312485726</v>
+        <v>28.95261307532969</v>
       </c>
       <c r="G24">
-        <v>2.102999475164467</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>34.78710822818054</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.647178023889217</v>
       </c>
       <c r="J24">
-        <v>7.266817783663947</v>
+        <v>11.35958589786823</v>
       </c>
       <c r="K24">
-        <v>17.34921198025639</v>
+        <v>16.97130155595148</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.904527975116287</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.85716283998613</v>
       </c>
       <c r="N24">
-        <v>16.10939748883148</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.59718932888754</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.17586059746174</v>
+        <v>14.59967901192582</v>
       </c>
       <c r="C25">
-        <v>10.599081378312</v>
+        <v>10.28472094170879</v>
       </c>
       <c r="D25">
-        <v>4.313316744958443</v>
+        <v>7.295053335062694</v>
       </c>
       <c r="E25">
-        <v>9.908558042179237</v>
+        <v>11.36414504533578</v>
       </c>
       <c r="F25">
-        <v>41.19893634235955</v>
+        <v>27.77866821005217</v>
       </c>
       <c r="G25">
-        <v>2.120535431291727</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>33.2894398927581</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.696124595834805</v>
       </c>
       <c r="J25">
-        <v>7.009624002908031</v>
+        <v>11.26096971982132</v>
       </c>
       <c r="K25">
-        <v>15.88950734470978</v>
+        <v>16.86703334417784</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.664627828628953</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.46935214149098</v>
       </c>
       <c r="N25">
-        <v>16.29254703076963</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.94332976850572</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_5/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_5/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.40524282719949</v>
+        <v>13.04508943796475</v>
       </c>
       <c r="C2">
-        <v>9.323459951406029</v>
+        <v>9.861637335814233</v>
       </c>
       <c r="D2">
-        <v>6.799093198624999</v>
+        <v>7.021998022493034</v>
       </c>
       <c r="E2">
-        <v>10.69107164279523</v>
+        <v>10.79454033476451</v>
       </c>
       <c r="F2">
-        <v>27.02721340037007</v>
+        <v>26.09014623507137</v>
       </c>
       <c r="G2">
-        <v>32.37246316800772</v>
+        <v>30.37721389108472</v>
       </c>
       <c r="I2">
-        <v>2.950264560433967</v>
+        <v>2.820716592460291</v>
       </c>
       <c r="J2">
-        <v>11.23344396481496</v>
+        <v>11.13612806796287</v>
       </c>
       <c r="K2">
-        <v>16.87832295305967</v>
+        <v>16.00068416645547</v>
       </c>
       <c r="L2">
-        <v>6.497080360146061</v>
+        <v>13.30800959294143</v>
       </c>
       <c r="M2">
-        <v>12.36320005638237</v>
+        <v>10.41306945415626</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.471779525820646</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.32942455693375</v>
       </c>
       <c r="P2">
-        <v>13.21279126358805</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>12.9933926040361</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.4999635880989</v>
+        <v>12.20552025067946</v>
       </c>
       <c r="C3">
-        <v>8.670283909634978</v>
+        <v>9.128643781921587</v>
       </c>
       <c r="D3">
-        <v>6.462624250468505</v>
+        <v>6.664667287580886</v>
       </c>
       <c r="E3">
-        <v>10.22958215021034</v>
+        <v>10.32342516921001</v>
       </c>
       <c r="F3">
-        <v>26.49241792501905</v>
+        <v>25.62841458236036</v>
       </c>
       <c r="G3">
-        <v>31.69611292332494</v>
+        <v>29.8858002478173</v>
       </c>
       <c r="I3">
-        <v>3.148238433328951</v>
+        <v>2.992496231204382</v>
       </c>
       <c r="J3">
-        <v>11.21021905266342</v>
+        <v>11.08732066990107</v>
       </c>
       <c r="K3">
-        <v>16.86445900323703</v>
+        <v>16.03564788788414</v>
       </c>
       <c r="L3">
-        <v>6.387242145814414</v>
+        <v>13.42019234543311</v>
       </c>
       <c r="M3">
-        <v>11.55084531021426</v>
+        <v>10.36465639263908</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.362793131373475</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.53376333753877</v>
       </c>
       <c r="P3">
-        <v>13.39391886036717</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>13.16653444347085</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.95034246010381</v>
+        <v>11.65660259219171</v>
       </c>
       <c r="C4">
-        <v>8.251088324654976</v>
+        <v>8.657495254439423</v>
       </c>
       <c r="D4">
-        <v>6.251127266941419</v>
+        <v>6.440029201950905</v>
       </c>
       <c r="E4">
-        <v>9.942195751434109</v>
+        <v>10.02984152199232</v>
       </c>
       <c r="F4">
-        <v>26.17324711626743</v>
+        <v>25.35247456851857</v>
       </c>
       <c r="G4">
-        <v>31.29188029517772</v>
+        <v>29.59866263450336</v>
       </c>
       <c r="I4">
-        <v>3.274776573479065</v>
+        <v>3.102699007654161</v>
       </c>
       <c r="J4">
-        <v>11.20050883682302</v>
+        <v>11.05879639363374</v>
       </c>
       <c r="K4">
-        <v>16.86158168889468</v>
+        <v>16.06088536883373</v>
       </c>
       <c r="L4">
-        <v>6.322243206930067</v>
+        <v>13.48857830857291</v>
       </c>
       <c r="M4">
-        <v>11.02286548458305</v>
+        <v>10.35619750207103</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.298178154049741</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.0164909350672</v>
       </c>
       <c r="P4">
-        <v>13.50692194378226</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>13.27466055464943</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.71373639163592</v>
+        <v>11.41880360850075</v>
       </c>
       <c r="C5">
-        <v>8.084240812801511</v>
+        <v>8.468763333284791</v>
       </c>
       <c r="D5">
-        <v>6.166357078132241</v>
+        <v>6.349779346045545</v>
       </c>
       <c r="E5">
-        <v>9.825362649472412</v>
+        <v>9.910397316371458</v>
       </c>
       <c r="F5">
-        <v>26.03663663907863</v>
+        <v>25.23326500032875</v>
       </c>
       <c r="G5">
-        <v>31.11416625896671</v>
+        <v>29.46992392035928</v>
       </c>
       <c r="I5">
-        <v>3.330432907279142</v>
+        <v>3.152102981645709</v>
       </c>
       <c r="J5">
-        <v>11.19484741762076</v>
+        <v>11.0447368672901</v>
       </c>
       <c r="K5">
-        <v>16.85517533408365</v>
+        <v>16.06583744764246</v>
       </c>
       <c r="L5">
-        <v>6.296182309018024</v>
+        <v>13.51069465142711</v>
       </c>
       <c r="M5">
-        <v>10.79939157680701</v>
+        <v>10.35427734335118</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.272243467058039</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.79753885111058</v>
       </c>
       <c r="P5">
-        <v>13.55237319214883</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>13.31832287676417</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.66681092300147</v>
+        <v>11.37188200683893</v>
       </c>
       <c r="C6">
-        <v>8.066734040531824</v>
+        <v>8.447600266879846</v>
       </c>
       <c r="D6">
-        <v>6.155314549727231</v>
+        <v>6.337751810885238</v>
       </c>
       <c r="E6">
-        <v>9.807284421560817</v>
+        <v>9.891852759143893</v>
       </c>
       <c r="F6">
-        <v>26.00315466743889</v>
+        <v>25.20292637781685</v>
       </c>
       <c r="G6">
-        <v>31.06542479956881</v>
+        <v>29.4299703100186</v>
       </c>
       <c r="I6">
-        <v>3.343372880839003</v>
+        <v>3.164625046194832</v>
       </c>
       <c r="J6">
-        <v>11.19052898870747</v>
+        <v>11.03900925560448</v>
       </c>
       <c r="K6">
-        <v>16.84611930817981</v>
+        <v>16.05908674599953</v>
       </c>
       <c r="L6">
-        <v>6.291644190053495</v>
+        <v>13.50748948134176</v>
       </c>
       <c r="M6">
-        <v>10.76067923629153</v>
+        <v>10.34963585047829</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.26772847445845</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.75962582194974</v>
       </c>
       <c r="P6">
-        <v>13.55864810564819</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>13.32453989105053</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.92798807786865</v>
+        <v>11.63067128968351</v>
       </c>
       <c r="C7">
-        <v>8.276703590411733</v>
+        <v>8.67137775404016</v>
       </c>
       <c r="D7">
-        <v>6.258291030742494</v>
+        <v>6.452212033530076</v>
       </c>
       <c r="E7">
-        <v>9.944294053963771</v>
+        <v>10.03416112484069</v>
       </c>
       <c r="F7">
-        <v>26.14169351577653</v>
+        <v>25.3032815951044</v>
       </c>
       <c r="G7">
-        <v>31.23681322267904</v>
+        <v>29.61816310206986</v>
       </c>
       <c r="I7">
-        <v>3.285140917616305</v>
+        <v>3.115316704328419</v>
       </c>
       <c r="J7">
-        <v>11.19103713614638</v>
+        <v>11.00599507170065</v>
       </c>
       <c r="K7">
-        <v>16.83945888336335</v>
+        <v>16.03139168067711</v>
       </c>
       <c r="L7">
-        <v>6.321210372613915</v>
+        <v>13.462722533153</v>
       </c>
       <c r="M7">
-        <v>11.01678657734683</v>
+        <v>10.33754163710069</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.296733187375607</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.00416682177526</v>
       </c>
       <c r="P7">
-        <v>13.50402741760775</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>13.27109726778117</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.07721890210962</v>
+        <v>12.72680300718468</v>
       </c>
       <c r="C8">
-        <v>9.135687183604247</v>
+        <v>9.6120277979803</v>
       </c>
       <c r="D8">
-        <v>6.694463820220298</v>
+        <v>6.926501754610129</v>
       </c>
       <c r="E8">
-        <v>10.53746192761608</v>
+        <v>10.64489346333622</v>
       </c>
       <c r="F8">
-        <v>26.80261566945337</v>
+        <v>25.83161545566769</v>
       </c>
       <c r="G8">
-        <v>32.06911775385078</v>
+        <v>30.37539119499087</v>
       </c>
       <c r="I8">
-        <v>3.029954738450403</v>
+        <v>2.895700055363975</v>
       </c>
       <c r="J8">
-        <v>11.21213320168114</v>
+        <v>10.96521459483037</v>
       </c>
       <c r="K8">
-        <v>16.84332895440101</v>
+        <v>15.95590422004533</v>
       </c>
       <c r="L8">
-        <v>6.457823069732446</v>
+        <v>13.30031071932009</v>
       </c>
       <c r="M8">
-        <v>12.08533477366481</v>
+        <v>10.35282873761344</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.431456678649599</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.03767906044765</v>
       </c>
       <c r="P8">
-        <v>13.27045914754046</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>13.04533268160074</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.16282641215923</v>
+        <v>14.65823817417776</v>
       </c>
       <c r="C9">
-        <v>10.63396445761916</v>
+        <v>11.28883256173994</v>
       </c>
       <c r="D9">
-        <v>7.493045034314997</v>
+        <v>7.777300937996753</v>
       </c>
       <c r="E9">
-        <v>11.65602712922404</v>
+        <v>11.7866809909826</v>
       </c>
       <c r="F9">
-        <v>28.21909842496839</v>
+        <v>27.04413463627877</v>
       </c>
       <c r="G9">
-        <v>33.87540278356971</v>
+        <v>31.79681453907067</v>
       </c>
       <c r="I9">
-        <v>2.552432641286253</v>
+        <v>2.485681895158208</v>
       </c>
       <c r="J9">
-        <v>11.30772484322675</v>
+        <v>11.06923312629275</v>
       </c>
       <c r="K9">
-        <v>16.93698898511569</v>
+        <v>15.90823534511295</v>
       </c>
       <c r="L9">
-        <v>6.745544222716917</v>
+        <v>13.03582181785414</v>
       </c>
       <c r="M9">
-        <v>13.95567053748217</v>
+        <v>10.59832777901471</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.715857518383858</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.86585664587359</v>
       </c>
       <c r="P9">
-        <v>12.83156684464688</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>12.6254609189328</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.51988254704425</v>
+        <v>15.89326196912251</v>
       </c>
       <c r="C10">
-        <v>11.66094218562714</v>
+        <v>12.38267095833378</v>
       </c>
       <c r="D10">
-        <v>8.052242446969343</v>
+        <v>8.396376274643711</v>
       </c>
       <c r="E10">
-        <v>12.44846474344624</v>
+        <v>12.60484300134609</v>
       </c>
       <c r="F10">
-        <v>29.28297583821034</v>
+        <v>27.85564815091253</v>
       </c>
       <c r="G10">
-        <v>35.22308487048404</v>
+        <v>33.2776173388831</v>
       </c>
       <c r="I10">
-        <v>2.73102400797278</v>
+        <v>2.763471968413214</v>
       </c>
       <c r="J10">
-        <v>11.39833696287689</v>
+        <v>10.91022258655308</v>
       </c>
       <c r="K10">
-        <v>17.02668401182761</v>
+        <v>15.83590904943477</v>
       </c>
       <c r="L10">
-        <v>6.966945512256024</v>
+        <v>12.7967913040475</v>
       </c>
       <c r="M10">
-        <v>15.19072688306909</v>
+        <v>10.83047889325672</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.931649417194905</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.04298684389549</v>
       </c>
       <c r="P10">
-        <v>12.51429568942943</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>12.3177208823295</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.07932852085357</v>
+        <v>16.36784709398021</v>
       </c>
       <c r="C11">
-        <v>12.14166778027938</v>
+        <v>12.80752966716898</v>
       </c>
       <c r="D11">
-        <v>8.309372029629507</v>
+        <v>8.721123396341977</v>
       </c>
       <c r="E11">
-        <v>12.80562689755178</v>
+        <v>12.99149406058345</v>
       </c>
       <c r="F11">
-        <v>29.73149581160213</v>
+        <v>28.01925545033133</v>
       </c>
       <c r="G11">
-        <v>35.77010381402182</v>
+        <v>34.57585513030046</v>
       </c>
       <c r="I11">
-        <v>2.879942880942163</v>
+        <v>2.889529259206959</v>
       </c>
       <c r="J11">
-        <v>11.43067973319383</v>
+        <v>10.42566375426181</v>
       </c>
       <c r="K11">
-        <v>17.04011321564786</v>
+        <v>15.68934201255289</v>
       </c>
       <c r="L11">
-        <v>7.068664280191898</v>
+        <v>12.60686639184235</v>
       </c>
       <c r="M11">
-        <v>15.71949580746573</v>
+        <v>10.85610747149252</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.02643427571083</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.49789184038597</v>
       </c>
       <c r="P11">
-        <v>12.36631068837294</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>12.16779211052479</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.29849140252535</v>
+        <v>16.55116630787438</v>
       </c>
       <c r="C12">
-        <v>12.30367989790006</v>
+        <v>12.93878323233016</v>
       </c>
       <c r="D12">
-        <v>8.400016825427937</v>
+        <v>8.842145556509283</v>
       </c>
       <c r="E12">
-        <v>12.9371656374526</v>
+        <v>13.1362940633183</v>
       </c>
       <c r="F12">
-        <v>29.92530074606303</v>
+        <v>28.08346354353144</v>
       </c>
       <c r="G12">
-        <v>36.0189679593479</v>
+        <v>35.19410104806543</v>
       </c>
       <c r="I12">
-        <v>2.933230387237356</v>
+        <v>2.932708884658131</v>
       </c>
       <c r="J12">
-        <v>11.45169075270331</v>
+        <v>10.207383376625</v>
       </c>
       <c r="K12">
-        <v>17.06500426097298</v>
+        <v>15.64069948123641</v>
       </c>
       <c r="L12">
-        <v>7.108016443188799</v>
+        <v>12.54022688173929</v>
       </c>
       <c r="M12">
-        <v>15.91763400727252</v>
+        <v>10.87293135409172</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.062583090124797</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.66264285451401</v>
       </c>
       <c r="P12">
-        <v>12.31299805943679</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>12.11203106837713</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.25392905775127</v>
+        <v>16.51439395875404</v>
       </c>
       <c r="C13">
-        <v>12.26549413105457</v>
+        <v>12.90765062677979</v>
       </c>
       <c r="D13">
-        <v>8.379446928041306</v>
+        <v>8.814854699314244</v>
       </c>
       <c r="E13">
-        <v>12.90840109705172</v>
+        <v>13.1045944607993</v>
       </c>
       <c r="F13">
-        <v>29.88808040026883</v>
+        <v>28.07492925724562</v>
       </c>
       <c r="G13">
-        <v>35.97334165583083</v>
+        <v>35.06489802523723</v>
       </c>
       <c r="I13">
-        <v>2.921174583108018</v>
+        <v>2.922622388073263</v>
       </c>
       <c r="J13">
-        <v>11.44870352410654</v>
+        <v>10.25739644069167</v>
       </c>
       <c r="K13">
-        <v>17.06332894858027</v>
+        <v>15.65503769385431</v>
       </c>
       <c r="L13">
-        <v>7.09964036590666</v>
+        <v>12.55720150149721</v>
       </c>
       <c r="M13">
-        <v>15.87555164838922</v>
+        <v>10.87248793184164</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.054919520160459</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.62796885555322</v>
       </c>
       <c r="P13">
-        <v>12.32498748667454</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.12434277116589</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.09849399017608</v>
+        <v>16.38409731255721</v>
       </c>
       <c r="C14">
-        <v>12.15358729802864</v>
+        <v>12.81711174850762</v>
       </c>
       <c r="D14">
-        <v>8.316381900499886</v>
+        <v>8.730551218989085</v>
       </c>
       <c r="E14">
-        <v>12.81626342143674</v>
+        <v>13.00318570702728</v>
       </c>
       <c r="F14">
-        <v>29.7493674329153</v>
+        <v>28.02681841053467</v>
       </c>
       <c r="G14">
-        <v>35.79397887172389</v>
+        <v>34.62831139153064</v>
       </c>
       <c r="I14">
-        <v>2.884069961714726</v>
+        <v>2.892736160916531</v>
       </c>
       <c r="J14">
-        <v>11.43306167104545</v>
+        <v>10.40905606520683</v>
       </c>
       <c r="K14">
-        <v>17.04372712285446</v>
+        <v>15.68699714550539</v>
       </c>
       <c r="L14">
-        <v>7.071943697321498</v>
+        <v>12.60251594581647</v>
       </c>
       <c r="M14">
-        <v>15.73605351250766</v>
+        <v>10.85884933814445</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.029460387201612</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.5118015968789</v>
       </c>
       <c r="P14">
-        <v>12.36214060973412</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.1633385644365</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.99779952910151</v>
+        <v>16.29852209204966</v>
       </c>
       <c r="C15">
-        <v>12.09154018082863</v>
+        <v>12.76690236317924</v>
       </c>
       <c r="D15">
-        <v>8.279802171764178</v>
+        <v>8.68151162544469</v>
       </c>
       <c r="E15">
-        <v>12.760647460123</v>
+        <v>12.94213321588876</v>
       </c>
       <c r="F15">
-        <v>29.65546428069267</v>
+        <v>27.98598675627433</v>
       </c>
       <c r="G15">
-        <v>35.66832022402769</v>
+        <v>34.35671326167483</v>
       </c>
       <c r="I15">
-        <v>2.862608375289064</v>
+        <v>2.876103107308817</v>
       </c>
       <c r="J15">
-        <v>11.4204806435388</v>
+        <v>10.49408571360799</v>
       </c>
       <c r="K15">
-        <v>17.02449711678348</v>
+        <v>15.69848556922304</v>
       </c>
       <c r="L15">
-        <v>7.054794223823496</v>
+        <v>12.62473022720076</v>
       </c>
       <c r="M15">
-        <v>15.64925604377816</v>
+        <v>10.84393770419499</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.013612772255081</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.43863820282252</v>
       </c>
       <c r="P15">
-        <v>12.38390021563447</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.18656395983588</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.4409751864795</v>
+        <v>15.82073213268811</v>
       </c>
       <c r="C16">
-        <v>11.68817083777287</v>
+        <v>12.41215419085935</v>
       </c>
       <c r="D16">
-        <v>8.054183345569681</v>
+        <v>8.394090645295766</v>
       </c>
       <c r="E16">
-        <v>12.43339531527044</v>
+        <v>12.58793744446185</v>
       </c>
       <c r="F16">
-        <v>29.17656271716393</v>
+        <v>27.76759827402084</v>
       </c>
       <c r="G16">
-        <v>35.05143244841948</v>
+        <v>33.07178291338892</v>
       </c>
       <c r="I16">
-        <v>2.731301040998707</v>
+        <v>2.768713721659068</v>
       </c>
       <c r="J16">
-        <v>11.36997935260868</v>
+        <v>10.91188214755131</v>
       </c>
       <c r="K16">
-        <v>16.96359437403596</v>
+        <v>15.78680473688948</v>
       </c>
       <c r="L16">
-        <v>6.95847199961568</v>
+        <v>12.767778008308</v>
       </c>
       <c r="M16">
-        <v>15.14862172112268</v>
+        <v>10.78069866764459</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.923599045567046</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.00523523533195</v>
       </c>
       <c r="P16">
-        <v>12.51531588311298</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>12.32196629605513</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.09025196891858</v>
+        <v>15.51250719691299</v>
       </c>
       <c r="C17">
-        <v>11.43630472104423</v>
+        <v>12.17262089447901</v>
       </c>
       <c r="D17">
-        <v>7.913860315446318</v>
+        <v>8.224128012602735</v>
       </c>
       <c r="E17">
-        <v>12.23057451386699</v>
+        <v>12.3722203212046</v>
       </c>
       <c r="F17">
-        <v>28.88463330929979</v>
+        <v>27.59911307148644</v>
       </c>
       <c r="G17">
-        <v>34.67533361105829</v>
+        <v>32.43374036021773</v>
       </c>
       <c r="I17">
-        <v>2.650418012611605</v>
+        <v>2.701647824664905</v>
       </c>
       <c r="J17">
-        <v>11.34061790008444</v>
+        <v>11.08698696361584</v>
       </c>
       <c r="K17">
-        <v>16.92844576907469</v>
+        <v>15.82370600595586</v>
       </c>
       <c r="L17">
-        <v>6.899896451405341</v>
+        <v>12.84334524680343</v>
       </c>
       <c r="M17">
-        <v>14.83402093142233</v>
+        <v>10.73090170301455</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.867931435009391</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.7222360795297</v>
       </c>
       <c r="P17">
-        <v>12.5962230594356</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>12.4037301796286</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.89815013227834</v>
+        <v>15.34222801262092</v>
       </c>
       <c r="C18">
-        <v>11.27129868470514</v>
+        <v>12.00818365165085</v>
       </c>
       <c r="D18">
-        <v>7.826569115909325</v>
+        <v>8.12297174545607</v>
       </c>
       <c r="E18">
-        <v>12.11055303667222</v>
+        <v>12.24617664968828</v>
       </c>
       <c r="F18">
-        <v>28.74119182642022</v>
+        <v>27.51284506230958</v>
       </c>
       <c r="G18">
-        <v>34.50179498643772</v>
+        <v>32.16100009438832</v>
       </c>
       <c r="I18">
-        <v>2.599487021897047</v>
+        <v>2.657084746238223</v>
       </c>
       <c r="J18">
-        <v>11.33233385426424</v>
+        <v>11.16444422383639</v>
       </c>
       <c r="K18">
-        <v>16.92795686105493</v>
+        <v>15.85633858978427</v>
       </c>
       <c r="L18">
-        <v>6.866970238668389</v>
+        <v>12.89495695801396</v>
       </c>
       <c r="M18">
-        <v>14.65247161089266</v>
+        <v>10.71279897083447</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.836324320473416</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.55520156185792</v>
       </c>
       <c r="P18">
-        <v>12.64551138534387</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>12.45200972470493</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.82252196424298</v>
+        <v>15.27391923487843</v>
       </c>
       <c r="C19">
-        <v>11.22938298236927</v>
+        <v>11.9653328532575</v>
       </c>
       <c r="D19">
-        <v>7.801431440959772</v>
+        <v>8.093553615547835</v>
       </c>
       <c r="E19">
-        <v>12.07181699493695</v>
+        <v>12.20558478528533</v>
       </c>
       <c r="F19">
-        <v>28.67444967193303</v>
+        <v>27.46384386341098</v>
       </c>
       <c r="G19">
-        <v>34.41092725988357</v>
+        <v>32.04625603523898</v>
       </c>
       <c r="I19">
-        <v>2.585419370574215</v>
+        <v>2.646056199390185</v>
       </c>
       <c r="J19">
-        <v>11.3234439686243</v>
+        <v>11.17956372800544</v>
       </c>
       <c r="K19">
-        <v>16.9133246006075</v>
+        <v>15.85288393269514</v>
       </c>
       <c r="L19">
-        <v>6.85541664196715</v>
+        <v>12.90192500841388</v>
       </c>
       <c r="M19">
-        <v>14.58885976480422</v>
+        <v>10.69514905390876</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.825170696904075</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.49595367611363</v>
       </c>
       <c r="P19">
-        <v>12.66018482056611</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>12.46690368713324</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.12894373118194</v>
+        <v>15.5468724946201</v>
       </c>
       <c r="C20">
-        <v>11.46185279160039</v>
+        <v>12.19752971972976</v>
       </c>
       <c r="D20">
-        <v>7.928412447073151</v>
+        <v>8.241531427524002</v>
       </c>
       <c r="E20">
-        <v>12.25203751257586</v>
+        <v>12.39492259390961</v>
       </c>
       <c r="F20">
-        <v>28.91748946271872</v>
+        <v>27.62012632881939</v>
       </c>
       <c r="G20">
-        <v>34.71854406724985</v>
+        <v>32.49926723579318</v>
       </c>
       <c r="I20">
-        <v>2.658704320008598</v>
+        <v>2.708398350406103</v>
       </c>
       <c r="J20">
-        <v>11.34431100100839</v>
+        <v>11.07210610377394</v>
       </c>
       <c r="K20">
-        <v>16.93358823746379</v>
+        <v>15.821781169221</v>
       </c>
       <c r="L20">
-        <v>6.906156468895143</v>
+        <v>12.83674575046173</v>
       </c>
       <c r="M20">
-        <v>14.8679644450602</v>
+        <v>10.73770396072383</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.873916329223138</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.75317836778643</v>
       </c>
       <c r="P20">
-        <v>12.58780440723639</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>12.39521396902939</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.13069464574548</v>
+        <v>16.39786991303022</v>
       </c>
       <c r="C21">
-        <v>12.20570502520263</v>
+        <v>12.83319447363443</v>
       </c>
       <c r="D21">
-        <v>8.341115900833863</v>
+        <v>8.776181537786</v>
       </c>
       <c r="E21">
-        <v>12.84611758062265</v>
+        <v>13.04231578473088</v>
       </c>
       <c r="F21">
-        <v>29.76446069021013</v>
+        <v>27.95566784206249</v>
       </c>
       <c r="G21">
-        <v>35.80154200670247</v>
+        <v>34.95488882791191</v>
       </c>
       <c r="I21">
-        <v>2.898649647350644</v>
+        <v>2.904792525638175</v>
       </c>
       <c r="J21">
-        <v>11.42877819316565</v>
+        <v>10.22190371315787</v>
       </c>
       <c r="K21">
-        <v>17.02848670897276</v>
+        <v>15.62800933302512</v>
       </c>
       <c r="L21">
-        <v>7.079447304935521</v>
+        <v>12.55513067896332</v>
       </c>
       <c r="M21">
-        <v>15.77485765938053</v>
+        <v>10.82122312574613</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.03483565142419</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.52674509778718</v>
       </c>
       <c r="P21">
-        <v>12.34835078706319</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>12.1473460497083</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.77301785247478</v>
+        <v>16.94093411448563</v>
       </c>
       <c r="C22">
-        <v>12.65326029248962</v>
+        <v>13.20389224116014</v>
       </c>
       <c r="D22">
-        <v>8.596591625534156</v>
+        <v>9.113856006029838</v>
       </c>
       <c r="E22">
-        <v>13.22387557069055</v>
+        <v>13.45583217594432</v>
       </c>
       <c r="F22">
-        <v>30.35626787385767</v>
+        <v>28.19087022802366</v>
       </c>
       <c r="G22">
-        <v>36.57380686581591</v>
+        <v>36.71962948217688</v>
       </c>
       <c r="I22">
-        <v>3.049575059620162</v>
+        <v>3.026056396856014</v>
       </c>
       <c r="J22">
-        <v>11.50066322058897</v>
+        <v>9.664797064865031</v>
       </c>
       <c r="K22">
-        <v>17.12459456414535</v>
+        <v>15.51690316652689</v>
       </c>
       <c r="L22">
-        <v>7.195115340701527</v>
+        <v>12.38323847803888</v>
       </c>
       <c r="M22">
-        <v>16.34618983054514</v>
+        <v>10.89826858202833</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.141582499191025</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.00835538811239</v>
       </c>
       <c r="P22">
-        <v>12.19633340291572</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>11.98874272039143</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.44911204324817</v>
+        <v>16.67740198126483</v>
       </c>
       <c r="C23">
-        <v>12.39281922108995</v>
+        <v>13.00549234932377</v>
       </c>
       <c r="D23">
-        <v>8.453458599648629</v>
+        <v>8.91660099637199</v>
       </c>
       <c r="E23">
-        <v>13.01962815510118</v>
+        <v>13.22793230777872</v>
       </c>
       <c r="F23">
-        <v>30.07062946615618</v>
+        <v>28.13848113016851</v>
       </c>
       <c r="G23">
-        <v>36.21503644946752</v>
+        <v>35.65234001712074</v>
       </c>
       <c r="I23">
-        <v>2.965204882943055</v>
+        <v>2.957102992952147</v>
       </c>
       <c r="J23">
-        <v>11.47243936284836</v>
+        <v>10.06153876298216</v>
       </c>
       <c r="K23">
-        <v>17.09784013346477</v>
+        <v>15.62123547336433</v>
       </c>
       <c r="L23">
-        <v>7.133988088301874</v>
+        <v>12.50543355544572</v>
       </c>
       <c r="M23">
-        <v>16.04619191024395</v>
+        <v>10.89427871847988</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.086312202662922</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.76811341694372</v>
       </c>
       <c r="P23">
-        <v>12.28086219832319</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>12.07705656655831</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.1386541895673</v>
+        <v>15.55769743877833</v>
       </c>
       <c r="C24">
-        <v>11.41167106599009</v>
+        <v>12.14766121219751</v>
       </c>
       <c r="D24">
-        <v>7.909504559205445</v>
+        <v>8.221620805228081</v>
       </c>
       <c r="E24">
-        <v>12.23683083217149</v>
+        <v>12.3792773604486</v>
       </c>
       <c r="F24">
-        <v>28.95261307532969</v>
+        <v>27.65899916977376</v>
       </c>
       <c r="G24">
-        <v>34.78710822818054</v>
+        <v>32.55532623464394</v>
       </c>
       <c r="I24">
-        <v>2.647178023889217</v>
+        <v>2.695123993787928</v>
       </c>
       <c r="J24">
-        <v>11.35958589786823</v>
+        <v>11.09464276368964</v>
       </c>
       <c r="K24">
-        <v>16.97130155595148</v>
+        <v>15.85959275439816</v>
       </c>
       <c r="L24">
-        <v>6.904527975116287</v>
+        <v>12.86620538301989</v>
       </c>
       <c r="M24">
-        <v>14.85716283998613</v>
+        <v>10.76474685067766</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.872384281239762</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.74356422093555</v>
       </c>
       <c r="P24">
-        <v>12.59718932888754</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>12.40273389655676</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.59967901192582</v>
+        <v>14.14102150847381</v>
       </c>
       <c r="C25">
-        <v>10.28472094170879</v>
+        <v>10.90740023848564</v>
       </c>
       <c r="D25">
-        <v>7.295053335062694</v>
+        <v>7.558812958552711</v>
       </c>
       <c r="E25">
-        <v>11.36414504533578</v>
+        <v>11.48583627607765</v>
       </c>
       <c r="F25">
-        <v>27.77866821005217</v>
+        <v>26.68648471600572</v>
       </c>
       <c r="G25">
-        <v>33.2894398927581</v>
+        <v>31.21475943598099</v>
       </c>
       <c r="I25">
-        <v>2.696124595834805</v>
+        <v>2.610180389705045</v>
       </c>
       <c r="J25">
-        <v>11.26096971982132</v>
+        <v>11.08378979691221</v>
       </c>
       <c r="K25">
-        <v>16.86703334417784</v>
+        <v>15.8932681021922</v>
       </c>
       <c r="L25">
-        <v>6.664627828628953</v>
+        <v>13.08942042253874</v>
       </c>
       <c r="M25">
-        <v>13.46935214149098</v>
+        <v>10.49521952482007</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.636591478191287</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.39850916027093</v>
       </c>
       <c r="P25">
-        <v>12.94332976850572</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.73518699832393</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
